--- a/conven_control/data/curve_data_v2.xlsx
+++ b/conven_control/data/curve_data_v2.xlsx
@@ -119,7 +119,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -304,7 +304,7 @@
         <v>72.8948</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>-359.068</v>
+        <v>-0.932</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -344,7 +344,8 @@
         <v>50.3754</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>-359.566</v>
+        <f aca="false">-(360-359.566)</f>
+        <v>-0.434000000000026</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -364,7 +365,8 @@
         <v>51.6951</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>-359.799</v>
+        <f aca="false">-(360-359.799)</f>
+        <v>-0.201000000000022</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
